--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1845490.494367341</v>
+        <v>1949670.128818413</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>129.1380851356412</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.68942351146622</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>83.32727861849507</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>61.36917500887014</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>308.4090493874685</v>
+        <v>17.35112070699533</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>105.3573734868392</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>35.19979243143102</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>10.74297899850771</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>138.1665993380041</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>148.4344942516665</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>46.88052556973754</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701368</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>132.119078727372</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>220.2172734357222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8253826161917887</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>116.6807033268978</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9367233701397</v>
+        <v>108.2950343703312</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U22" t="n">
-        <v>245.8640357413592</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.73433514019987</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>212.3267021497095</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H31" t="n">
-        <v>73.98898794535447</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>174.7517449752703</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V37" t="n">
-        <v>203.7428910438519</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3084.872642898244</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2753.809755554673</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2401.041100284559</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2027.575342023478</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4398,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2555.39990052468</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435997</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>2844.81707056164</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V4" t="n">
-        <v>2844.81707056164</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W4" t="n">
-        <v>2555.39990052468</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>2555.39990052468</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>2555.39990052468</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.813113209913</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2324.347354948834</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1934.208022973022</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,37 +4649,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>724.6349591950673</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>724.6349591950673</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>724.6349591950673</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>724.6349591950673</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="W7" t="n">
-        <v>435.2177891581066</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="X7" t="n">
-        <v>435.2177891581066</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>664.5390807843204</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2016.438433460087</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1647.475916519676</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1289.210217912925</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>903.4219653146811</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>492.4360605250735</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>77.36361037006998</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>77.36361037006998</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3075.752931582726</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2722.984276312612</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524209</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y8" t="n">
-        <v>2403.038273524209</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>770.9531732407439</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>770.9531732407439</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>770.9531732407439</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>770.9531732407439</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>770.9531732407439</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="X10" t="n">
-        <v>542.9636223427266</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.9636223427266</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290468</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1050.315828159286</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159286</v>
+        <v>916.2946447138424</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5309,7 +5311,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474271</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474271</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474271</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>94.65038286230703</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E19" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F19" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2798.451385364349</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>2629.515202436442</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2479.398563024106</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2479.398563024106</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U22" t="n">
-        <v>3972.983638478983</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>3718.299150273097</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3428.881980236136</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3200.892429338119</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>2980.099850194589</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6005,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2488.637091092976</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2346.925259935174</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U28" t="n">
-        <v>1762.98966419767</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V28" t="n">
-        <v>1508.305175991783</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6482,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909563</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>482.6390612909563</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F31" t="n">
-        <v>335.7491137930459</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G31" t="n">
-        <v>168.5530145079259</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6731,7 +6733,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2270.446169463826</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1981.370942808024</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="L36" t="n">
-        <v>2848.020469709692</v>
+        <v>2453.684166529966</v>
       </c>
       <c r="M36" t="n">
-        <v>3445.398957336244</v>
+        <v>3051.062654156518</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336244</v>
+        <v>3678.660617711125</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>4230.570347950412</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R36" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7372,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1963.765362972544</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7786,19 +7788,19 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>35.12774237125586</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>66.30572490086877</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.4693302300321</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>109.0289520621393</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5874149221291134</v>
+        <v>57.22910392193769</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U22" t="n">
-        <v>40.32043864788491</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.8503182118949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038469</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>73.85777223953468</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H31" t="n">
-        <v>66.30572490086942</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>42.65370535201794</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V37" t="n">
-        <v>48.3947522799761</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049983</v>
-      </c>
       <c r="E2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,37 +26420,37 @@
         <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687973</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687966</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395525</v>
+        <v>373198.5542395529</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395525</v>
+        <v>373198.5542395527</v>
       </c>
       <c r="E6" t="n">
-        <v>123030.9881448624</v>
+        <v>123030.9881448617</v>
       </c>
       <c r="F6" t="n">
+        <v>448443.449952218</v>
+      </c>
+      <c r="G6" t="n">
         <v>448443.4499522175</v>
       </c>
-      <c r="G6" t="n">
-        <v>448443.449952218</v>
-      </c>
       <c r="H6" t="n">
+        <v>448443.4499522179</v>
+      </c>
+      <c r="I6" t="n">
+        <v>448443.4499522178</v>
+      </c>
+      <c r="J6" t="n">
+        <v>230912.2475549403</v>
+      </c>
+      <c r="K6" t="n">
         <v>448443.4499522176</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>448443.4499522176</v>
       </c>
-      <c r="J6" t="n">
-        <v>230912.2475549402</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>363388.4220167059</v>
+      </c>
+      <c r="N6" t="n">
         <v>448443.4499522179</v>
       </c>
-      <c r="L6" t="n">
-        <v>448443.4499522175</v>
-      </c>
-      <c r="M6" t="n">
-        <v>363388.422016706</v>
-      </c>
-      <c r="N6" t="n">
-        <v>448443.4499522178</v>
-      </c>
       <c r="O6" t="n">
-        <v>448443.4499522175</v>
+        <v>448443.4499522177</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522175</v>
+        <v>448443.4499522176</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>121.8570868232608</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.5485151445874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>83.91954248013276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>40.83191932994447</v>
+        <v>331.8898480104177</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>84.41165184460273</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>216.937850892397</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>30.83395077441824</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>189.5856591321308</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>41.33453107977536</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.6424727668535</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28749,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6021172789107</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107728</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496626</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>465.217062384076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,16 +33268,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,13 +33742,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>610.054682604365</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33901,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189582</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>658.2124561388958</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>619.2604051955774</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663283</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663293</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>322.6208179396315</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191356</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>440.9755796648395</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>471.5003028244908</v>
+        <v>71.3955650623777</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969399</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1949670.128818413</v>
+        <v>1945657.51880442</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>129.1380851356412</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>6.686682526455633</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.36917500887014</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>229.2070970962415</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699533</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>93.35882079148051</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>35.19979243143102</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>164.722198528009</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>138.1665993380041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386402</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>46.88052556973754</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>132.119078727372</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>191.3928535690719</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>116.6807033268978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703312</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788180832</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444143</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>174.7517449752703</v>
+        <v>70.40964990483307</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T43" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3084.872642898244</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2753.809755554673</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2401.041100284559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2027.575342023478</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.436010047667</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1396.478739875898</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1010.690487277654</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>751.9508228902786</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>601.8341834779428</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>453.9210898955497</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>307.0311423976393</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>885.3316599278505</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>885.3316599278505</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>885.3316599278505</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3048.929094017065</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3048.929094017065</v>
       </c>
       <c r="V8" t="n">
-        <v>3075.752931582726</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.984276312612</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="X8" t="n">
-        <v>2349.518518051532</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>272.27262506531</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>576.372060369826</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589159</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138424</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138424</v>
+        <v>942.5699949746665</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138424</v>
+        <v>721.7774158311364</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,25 +5290,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,46 +5503,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2655.833190378096</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>2655.833190378096</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>2655.833190378096</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>2488.637091092976</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2346.925259935174</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,10 +6499,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6551,19 +6551,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556308</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362691</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.8386896933887</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2270.446169463826</v>
+        <v>2125.941686997837</v>
       </c>
       <c r="U34" t="n">
-        <v>1981.370942808024</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.686454602137</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W34" t="n">
-        <v>1437.269284565176</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.279733667159</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.4871545236284</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118212</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2453.684166529966</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3051.062654156518</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3678.660617711125</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4230.570347950412</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7320,13 +7320,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601574</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613763</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>35.12774237125586</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>26.01259675821632</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>109.0289520621393</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392193769</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038469</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>42.65370535201794</v>
+        <v>146.9958004224552</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395529</v>
+        <v>373198.5542395531</v>
       </c>
       <c r="D6" t="n">
         <v>373198.5542395527</v>
       </c>
       <c r="E6" t="n">
-        <v>123030.9881448617</v>
+        <v>122683.6088905055</v>
       </c>
       <c r="F6" t="n">
-        <v>448443.449952218</v>
+        <v>448096.0706978611</v>
       </c>
       <c r="G6" t="n">
-        <v>448443.4499522175</v>
+        <v>448096.0706978607</v>
       </c>
       <c r="H6" t="n">
-        <v>448443.4499522179</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="I6" t="n">
-        <v>448443.4499522178</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="J6" t="n">
-        <v>230912.2475549403</v>
+        <v>230564.868300583</v>
       </c>
       <c r="K6" t="n">
-        <v>448443.4499522176</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="L6" t="n">
-        <v>448443.4499522176</v>
+        <v>448096.0706978609</v>
       </c>
       <c r="M6" t="n">
-        <v>363388.4220167059</v>
+        <v>363041.0427623488</v>
       </c>
       <c r="N6" t="n">
-        <v>448443.4499522179</v>
+        <v>448096.0706978607</v>
       </c>
       <c r="O6" t="n">
-        <v>448443.4499522177</v>
+        <v>448096.0706978607</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522176</v>
+        <v>448096.0706978605</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>121.8570868232608</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>363.0444181520134</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>177.66894864547</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104177</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>72.66698746754771</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>216.937850892397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>39.19577161161112</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>189.5856591321308</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.7439527351642</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.6424727668535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28751,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31791,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107728</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663283</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191356</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>71.3955650623777</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1945657.51880442</v>
+        <v>1947418.049107205</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9968920.06193611</v>
+        <v>9968920.061936108</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>389.5684993145359</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.686682526455633</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>229.2070970962415</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>119.4052401486905</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>93.35882079148051</v>
+        <v>164.2532214802693</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>164.722198528009</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386402</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>191.3928535690719</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>40.15381658332875</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.5380597272477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>70.40964990483307</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>103.1686991936193</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1661.13895121386</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1661.13895121386</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1302.87325260711</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>917.0850000088656</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X2" t="n">
-        <v>2065.221161406442</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y2" t="n">
-        <v>2065.221161406442</v>
+        <v>1661.13895121386</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482648</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1754.744438482648</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1396.478739875898</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1010.690487277654</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3094.703799450719</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3094.703799450719</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522582</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.34427854677</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902786</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779428</v>
+        <v>770.7703664058488</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955497</v>
+        <v>622.8572728234557</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976393</v>
+        <v>475.9673253255453</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3048.929094017065</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3048.929094017065</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.866206673494</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2717.866206673494</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2717.866206673494</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697682</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879457</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600388</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477031</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>272.27262506531</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673996</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2003.736430771334</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1714.661204115532</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1459.976715909645</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1170.559545872684</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>942.5699949746665</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>721.7774158311364</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5363,16 +5363,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998684</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5427,22 +5427,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.371145873544</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.686657667657</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1207.269487630696</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>979.2799367326791</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>758.4873575891489</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408906</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2125.941686997837</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.866460342035</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>705.9324428257312</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1108.373486799501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>887.5809076559709</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7159,7 +7159,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>198.027470314254</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>198.027470314254</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>26.01259675821632</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>211.9838267404992</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>146.9958004224552</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>37.12601365260461</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.619783004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
@@ -26355,7 +26355,7 @@
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,7 +26441,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880399</v>
+        <v>-955546.1914880396</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395531</v>
+        <v>373198.5542395525</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395526</v>
       </c>
       <c r="E6" t="n">
-        <v>122683.6088905055</v>
+        <v>122996.2502194265</v>
       </c>
       <c r="F6" t="n">
-        <v>448096.0706978611</v>
+        <v>448408.7120267817</v>
       </c>
       <c r="G6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.7120267817</v>
       </c>
       <c r="H6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="I6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="J6" t="n">
-        <v>230564.868300583</v>
+        <v>230877.5096295045</v>
       </c>
       <c r="K6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.712026782</v>
       </c>
       <c r="L6" t="n">
-        <v>448096.0706978609</v>
+        <v>448408.712026782</v>
       </c>
       <c r="M6" t="n">
-        <v>363041.0427623488</v>
+        <v>363353.6840912702</v>
       </c>
       <c r="N6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.712026782</v>
       </c>
       <c r="O6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="P6" t="n">
-        <v>448096.0706978605</v>
+        <v>448408.7120267819</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17.30754642717557</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>363.0444181520134</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>177.66894864547</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>84.51272999092967</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>72.66698746754771</v>
+        <v>1.772586778758892</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>39.19577161161112</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351642</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>187.2159464875255</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760904</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32244,7 +32244,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>55.87423440419222</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962163</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
